--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-08.xlsx
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>Friday, 9 January, 2026 6:08 PM</t>
@@ -3057,38 +3063,64 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" ht="26.25" customHeight="1">
-      <c r="K85" s="10">
-        <v>5119.2700000000004</v>
-      </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="11">
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
         <v>121</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c t="s" r="F86" s="12">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
         <v>122</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c t="s" r="I86" s="14">
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>30</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c t="s" r="N85" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="K86" s="10">
+        <v>5149.2700000000004</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="11">
         <v>123</v>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c t="s" r="F87" s="12">
+        <v>124</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+      <c t="s" r="I87" s="14">
+        <v>125</v>
+      </c>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
+  <mergeCells count="257">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3339,10 +3371,13 @@
     <mergeCell ref="B84:G84"/>
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:N87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
